--- a/regionseng/4/agriculture/3. Number of livestock.xlsx
+++ b/regionseng/4/agriculture/3. Number of livestock.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\აჭარის არ\ENG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsmelashvili\Desktop\რეგიონული სტატისტიკის პორტალი_2023\აჭარის არ\ENG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B58C15C-2A9A-4BAF-A716-B5DD9263057D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="14">
   <si>
     <t>Beehives (ths. hives)</t>
   </si>
@@ -97,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -187,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -219,6 +218,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -237,14 +245,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -339,23 +347,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -391,23 +382,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -583,11 +557,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -598,28 +572,30 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>2006</v>
@@ -669,8 +645,14 @@
       <c r="Q2" s="3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R2" s="3">
+        <v>2022</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -722,8 +704,14 @@
       <c r="Q3" s="4">
         <v>53.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R3" s="4">
+        <v>48.5</v>
+      </c>
+      <c r="S3" s="4">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -775,8 +763,14 @@
       <c r="Q4" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R4" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="S4" s="4">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -828,8 +822,12 @@
       <c r="Q5" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -881,8 +879,12 @@
       <c r="Q6" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -934,8 +936,12 @@
       <c r="Q7" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -987,8 +993,12 @@
       <c r="Q8" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1040,8 +1050,12 @@
       <c r="Q9" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1093,8 +1107,12 @@
       <c r="Q10" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1146,8 +1164,14 @@
       <c r="Q11" s="4">
         <v>101.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="4">
+        <v>96.4</v>
+      </c>
+      <c r="S11" s="4">
+        <v>147.80000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1199,54 +1223,60 @@
       <c r="Q12" s="4">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="R12" s="4">
+        <v>20</v>
+      </c>
+      <c r="S12" s="4">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A13:Q13"/>
     <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
